--- a/JobApplicantsList.xlsx
+++ b/JobApplicantsList.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E14"/>
+  <dimension ref="A1:E19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -422,7 +422,7 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
   <cols>
     <col width="19" customWidth="1" min="1" max="1"/>
-    <col width="22" customWidth="1" min="2" max="2"/>
+    <col width="26" customWidth="1" min="2" max="2"/>
     <col width="28" customWidth="1" min="3" max="3"/>
     <col width="27" customWidth="1" min="4" max="4"/>
     <col width="294" customWidth="1" min="5" max="5"/>
@@ -791,6 +791,141 @@
         </is>
       </c>
     </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Jack</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Php</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>more than 4 year</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>kirtan.g@gmail.com</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>www.kirtan.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Rina</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Game Dev</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>more than 4 year</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>rina@gmail.com</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>https://docs.google.com/document/d/1Y0xwbbYnamAFydZypaXfQjo0i9pJryDW-3OtaPzHBL8/edit</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Yuvika</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Php</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>more than 3 year</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>yuv@gmail.com</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>www.yuvika.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Enrick</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>blockchain developer</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>more than 4 year</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>jick@gmail.com</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>rick.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Alex</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>HTML5</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>2 year</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>alex@gmail.com</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>www.alex.com</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
